--- a/data/trans_dic/P37A$vacunapreferencia-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P37A$vacunapreferencia-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.008533712475365898</v>
+        <v>0.007384007769019583</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03092707060152853</v>
+        <v>0.03011845044760685</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01173823148316491</v>
+        <v>0.01144810771938139</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0626636485396414</v>
+        <v>0.0641997136976048</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.002434249684012217</v>
+        <v>0.002450533595875269</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0102768762500537</v>
+        <v>0.01011992224464705</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.004560033347842953</v>
+        <v>0.004413345527637157</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06449148856906231</v>
+        <v>0.06371575244960934</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.006855446186373008</v>
+        <v>0.006359946726859947</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02368008988405946</v>
+        <v>0.02363881866426642</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.009897321698520591</v>
+        <v>0.01026796299131558</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06581971681806725</v>
+        <v>0.06772100430109002</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02864165373557423</v>
+        <v>0.02714955189499214</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06510447864796882</v>
+        <v>0.06420667480321003</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03576365556047575</v>
+        <v>0.03424626524184097</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1040842549070903</v>
+        <v>0.105172963095926</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01439952911990769</v>
+        <v>0.01497870137106133</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03101429650564391</v>
+        <v>0.03132760485977268</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0205047942915521</v>
+        <v>0.02029362616507605</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0980655498149211</v>
+        <v>0.09597875206813061</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01837905632327393</v>
+        <v>0.01750148471161166</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04347361495919224</v>
+        <v>0.04386936021581326</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02401298364085921</v>
+        <v>0.02492325733667535</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09297343635397091</v>
+        <v>0.09444128903173607</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.02346362538685799</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.07322642316701961</v>
+        <v>0.07322642316701962</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.0312151403885753</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02315989110775978</v>
+        <v>0.02239128475326475</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01844856879212003</v>
+        <v>0.01841359814062246</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004806599789752318</v>
+        <v>0.005258591631337783</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05264914596762135</v>
+        <v>0.05240232320577464</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01969985004118447</v>
+        <v>0.01877049710086313</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01305240885143589</v>
+        <v>0.01321275520425952</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01605041436545511</v>
+        <v>0.0140580720594979</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06027226465585555</v>
+        <v>0.06049171039549932</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02434455330340795</v>
+        <v>0.02352154834366698</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0178591612289226</v>
+        <v>0.01852650299139313</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01187631061959246</v>
+        <v>0.01169355211015634</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06033493447494411</v>
+        <v>0.06122335341703621</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04765552078978741</v>
+        <v>0.04856235169009605</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03923096896730061</v>
+        <v>0.03908045901320053</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01963438880289814</v>
+        <v>0.0196667536586474</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08603001198395706</v>
+        <v>0.08684940881193566</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04380776304543841</v>
+        <v>0.04225669356716243</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03216522362352937</v>
+        <v>0.03328703620353612</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0353542493962709</v>
+        <v>0.03522603454131295</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08750104230608226</v>
+        <v>0.08611475778243328</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04145897001580625</v>
+        <v>0.03976748286930706</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03220504748860448</v>
+        <v>0.03289346599408055</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.024276891127697</v>
+        <v>0.02328133031601522</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08058642519941515</v>
+        <v>0.08209061959636786</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01035352328181225</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.09382485052986633</v>
+        <v>0.09382485052986632</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03883669635698303</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01670038893101413</v>
+        <v>0.01741226512181971</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02149565447304257</v>
+        <v>0.02178328929079154</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004987273200022439</v>
+        <v>0.004886592239394933</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07384351624098863</v>
+        <v>0.07461821757221303</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02665189755510302</v>
+        <v>0.02516442387964771</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01139732533242552</v>
+        <v>0.01166321833279631</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.008483188981799693</v>
+        <v>0.008068898476840818</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07234299936854453</v>
+        <v>0.07196354612838163</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02460563633444917</v>
+        <v>0.02468536001129628</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01912094788970517</v>
+        <v>0.01912772172904074</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.008009285785977238</v>
+        <v>0.008145742518884608</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07899970183724052</v>
+        <v>0.07690599311301946</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04556696242080379</v>
+        <v>0.04549907952365017</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05045864723376824</v>
+        <v>0.04813276237908366</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02006024758718784</v>
+        <v>0.02018871549873471</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1169033619762201</v>
+        <v>0.1173998301336763</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05746195444407744</v>
+        <v>0.056456955320126</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03456865715708894</v>
+        <v>0.03336252297696547</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0273966027228176</v>
+        <v>0.0265176266753804</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1099747630241265</v>
+        <v>0.1095986044521328</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04545526544641979</v>
+        <v>0.04500031249370463</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03609417519991454</v>
+        <v>0.0376135407852779</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0199871345641674</v>
+        <v>0.01929481717206292</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1074354515247163</v>
+        <v>0.1067495048908317</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.02279431077994364</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.07521786636237503</v>
+        <v>0.07521786636237501</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02523980519867923</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02082726982179638</v>
+        <v>0.0211453878545154</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0122012970791214</v>
+        <v>0.01295345697233419</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01462029517579883</v>
+        <v>0.01470705632522484</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06042059569834939</v>
+        <v>0.06127310581200831</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01600150396018897</v>
+        <v>0.0154492706030114</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.009645391834977516</v>
+        <v>0.00971354310373739</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01125479678094262</v>
+        <v>0.0113261735879654</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06318064820288377</v>
+        <v>0.06402949367916112</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02011019454375163</v>
+        <v>0.02137994754435702</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0130564159467308</v>
+        <v>0.01330383286985025</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01495734747905858</v>
+        <v>0.01547620591007592</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06556870789133372</v>
+        <v>0.06602065162630416</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04208009135394761</v>
+        <v>0.04471855287845443</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0322041820966515</v>
+        <v>0.03281842307198924</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03341091627144861</v>
+        <v>0.03488120859626082</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09156466485673118</v>
+        <v>0.09299853157274669</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03862014893063626</v>
+        <v>0.03688306220083915</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02584772261852993</v>
+        <v>0.02519783936136722</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03029151689740096</v>
+        <v>0.03157131576096348</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08852676828049112</v>
+        <v>0.08997760550658639</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03597707224702398</v>
+        <v>0.037174865763022</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02596877156015411</v>
+        <v>0.02589176069735647</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02837349354032265</v>
+        <v>0.0289558079638395</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0859154618839033</v>
+        <v>0.08592514331774519</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.01612896315600401</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.07848759188355858</v>
+        <v>0.07848759188355856</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.02539704821019888</v>
@@ -1241,7 +1241,7 @@
         <v>0.01708228783864698</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.07852081520358206</v>
+        <v>0.07852081520358205</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02227103448889533</v>
+        <v>0.02260548657989828</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02507076128248122</v>
+        <v>0.02492673095868363</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.012444650944344</v>
+        <v>0.01267839570999348</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06948798926890647</v>
+        <v>0.06962842548003721</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02055905311988722</v>
+        <v>0.02034960394628156</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01515878395978851</v>
+        <v>0.01464172625743097</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01356303550495595</v>
+        <v>0.01384655924060113</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.071203822961588</v>
+        <v>0.07105170135633329</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02209433421305369</v>
+        <v>0.02283937826353471</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02141079622364449</v>
+        <v>0.02119588181278059</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0141112219745042</v>
+        <v>0.01427992604185112</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07308447410665245</v>
+        <v>0.07299098884762817</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03442974265203021</v>
+        <v>0.03437869298486995</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03672655997585207</v>
+        <v>0.03797679973509614</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02124627546719885</v>
+        <v>0.02133558388424528</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08826347350438817</v>
+        <v>0.08841763022063404</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03133230507107263</v>
+        <v>0.03120167422214151</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02404645688084824</v>
+        <v>0.02444413795098214</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02353516702760737</v>
+        <v>0.02292535442005354</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08638381948184316</v>
+        <v>0.08581954980200397</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03083307366561911</v>
+        <v>0.03109218256379285</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02873619031676033</v>
+        <v>0.02877769064922969</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02044972403774415</v>
+        <v>0.02045556167342535</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08445853315539513</v>
+        <v>0.08495260955912377</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5922</v>
+        <v>5125</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>21756</v>
+        <v>21187</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7921</v>
+        <v>7725</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>43282</v>
+        <v>44343</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1676</v>
+        <v>1687</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7163</v>
+        <v>7054</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3068</v>
+        <v>2969</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>47348</v>
+        <v>46779</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>9477</v>
+        <v>8792</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>33164</v>
+        <v>33107</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>13338</v>
+        <v>13838</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>93786</v>
+        <v>96495</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19878</v>
+        <v>18842</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45799</v>
+        <v>45167</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24133</v>
+        <v>23109</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>71892</v>
+        <v>72644</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9912</v>
+        <v>10311</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>21619</v>
+        <v>21837</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>13796</v>
+        <v>13654</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>71998</v>
+        <v>70466</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>25407</v>
+        <v>24193</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>60886</v>
+        <v>61440</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>32361</v>
+        <v>33588</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>132477</v>
+        <v>134568</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22275</v>
+        <v>21536</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18780</v>
+        <v>18744</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4914</v>
+        <v>5377</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>55225</v>
+        <v>54966</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>19077</v>
+        <v>18177</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>13472</v>
+        <v>13638</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>16739</v>
+        <v>14661</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>64580</v>
+        <v>64815</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>46990</v>
+        <v>45401</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>36614</v>
+        <v>37982</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>24529</v>
+        <v>24151</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>127934</v>
+        <v>129817</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>45835</v>
+        <v>46707</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>39935</v>
+        <v>39782</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20075</v>
+        <v>20108</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>90238</v>
+        <v>91098</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>42423</v>
+        <v>40921</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>33200</v>
+        <v>34358</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>36871</v>
+        <v>36738</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>93755</v>
+        <v>92270</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>80024</v>
+        <v>76759</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>66025</v>
+        <v>67436</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>50140</v>
+        <v>48084</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>170875</v>
+        <v>174064</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11331</v>
+        <v>11814</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16286</v>
+        <v>16504</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3788</v>
+        <v>3712</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>59302</v>
+        <v>59924</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>18226</v>
+        <v>17208</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8858</v>
+        <v>9064</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6659</v>
+        <v>6334</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>58761</v>
+        <v>58453</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>33521</v>
+        <v>33630</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>29347</v>
+        <v>29357</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>12371</v>
+        <v>12582</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>127611</v>
+        <v>124229</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>30918</v>
+        <v>30872</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38229</v>
+        <v>36466</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15237</v>
+        <v>15334</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>93882</v>
+        <v>94281</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>39295</v>
+        <v>38608</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>26866</v>
+        <v>25928</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21507</v>
+        <v>20817</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>89328</v>
+        <v>89022</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>61926</v>
+        <v>61306</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>55397</v>
+        <v>57729</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>30871</v>
+        <v>29802</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>173544</v>
+        <v>172436</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>19624</v>
+        <v>19924</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11564</v>
+        <v>12276</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13708</v>
+        <v>13789</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>59820</v>
+        <v>60664</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>16619</v>
+        <v>16046</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10146</v>
+        <v>10218</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>11748</v>
+        <v>11822</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>70702</v>
+        <v>71652</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>39835</v>
+        <v>42350</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>26108</v>
+        <v>26603</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>29636</v>
+        <v>30664</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>138291</v>
+        <v>139244</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>39649</v>
+        <v>42135</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30521</v>
+        <v>31103</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>31325</v>
+        <v>32703</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>90655</v>
+        <v>92074</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>40111</v>
+        <v>38307</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>27189</v>
+        <v>26506</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>31618</v>
+        <v>32953</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>99065</v>
+        <v>100689</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>71265</v>
+        <v>73637</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>51928</v>
+        <v>51774</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>56218</v>
+        <v>57371</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>181205</v>
+        <v>181225</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>72972</v>
+        <v>74068</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>85912</v>
+        <v>85418</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>42242</v>
+        <v>43035</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>245485</v>
+        <v>245981</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>69473</v>
+        <v>68765</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>53940</v>
+        <v>52100</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>48075</v>
+        <v>49080</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>266085</v>
+        <v>265517</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>147054</v>
+        <v>152013</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>149556</v>
+        <v>148055</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>97916</v>
+        <v>99087</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>531303</v>
+        <v>530624</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>112811</v>
+        <v>112643</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>125854</v>
+        <v>130138</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>72117</v>
+        <v>72420</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>311814</v>
+        <v>312358</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>105878</v>
+        <v>105437</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>85565</v>
+        <v>86980</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>83421</v>
+        <v>81260</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>322812</v>
+        <v>320704</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>205217</v>
+        <v>206942</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>200725</v>
+        <v>201015</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>141898</v>
+        <v>141939</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>613990</v>
+        <v>617581</v>
       </c>
     </row>
     <row r="24">
